--- a/ONCHO/Entomological survey Survey/Nigeria/2023/nov/ng_oncho_bsc_202311_capture_jigawa.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2023/nov/ng_oncho_bsc_202311_capture_jigawa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\nov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE79344-6696-4CB6-ACFD-8CEB286AC76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1832C526-02FA-44CC-AF90-D595FF2D0B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>begin repeat</t>
   </si>
   <si>
-    <t>s_</t>
-  </si>
-  <si>
     <t>Black flies collection</t>
   </si>
   <si>
@@ -497,13 +494,16 @@
     <t>State</t>
   </si>
   <si>
-    <t>ng_oncho_bsc_202311_capture_jigawa</t>
-  </si>
-  <si>
     <t>Mallam Maduri</t>
   </si>
   <si>
-    <t>(2023 November) - Jigawa: Human Landing Catches</t>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>(2023 November) - Jigawa: Human Landing Catches V1</t>
+  </si>
+  <si>
+    <t>ng_oncho_bsc_202311_capture_jigawa_v1</t>
   </si>
 </sst>
 </file>
@@ -947,7 +947,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H14:H19"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1016,7 +1016,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="14"/>
@@ -1037,7 +1037,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="16"/>
@@ -1079,13 +1079,13 @@
     </row>
     <row r="5" spans="1:13" s="12" customFormat="1">
       <c r="A5" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>21</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="6" spans="1:13" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>25</v>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="12" customFormat="1">
@@ -1133,7 +1133,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>29</v>
@@ -1172,13 +1172,13 @@
     </row>
     <row r="9" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>32</v>
@@ -1259,10 +1259,10 @@
         <v>40</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>42</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
@@ -1275,13 +1275,13 @@
     </row>
     <row r="14" spans="1:13" s="12" customFormat="1">
       <c r="A14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="16"/>
@@ -1296,13 +1296,13 @@
     </row>
     <row r="15" spans="1:13" s="12" customFormat="1">
       <c r="A15" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="16"/>
@@ -1317,13 +1317,13 @@
     </row>
     <row r="16" spans="1:13" s="12" customFormat="1" ht="31.5">
       <c r="A16" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="16"/>
@@ -1338,13 +1338,13 @@
     </row>
     <row r="17" spans="1:12" s="12" customFormat="1" ht="31.5">
       <c r="A17" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="16"/>
@@ -1359,13 +1359,13 @@
     </row>
     <row r="18" spans="1:12" s="12" customFormat="1">
       <c r="A18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="16"/>
@@ -1383,10 +1383,10 @@
         <v>23</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="16"/>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="20" spans="1:12" s="12" customFormat="1">
       <c r="A20" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1413,10 +1413,10 @@
     </row>
     <row r="21" spans="1:12" s="12" customFormat="1">
       <c r="A21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -1430,10 +1430,10 @@
     </row>
     <row r="22" spans="1:12" s="12" customFormat="1">
       <c r="A22" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -1486,7 +1486,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1495,945 +1495,945 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="C13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" t="s">
         <v>105</v>
-      </c>
-      <c r="C42" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E56" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2450,7 +2450,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2461,24 +2461,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>154</v>
-      </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
